--- a/Data/EC/NIT-9005646409.xlsx
+++ b/Data/EC/NIT-9005646409.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A714A0DA-0E31-47A4-8A4F-43CD90F08D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB904F9D-0060-4F80-91E3-FA3DB6B61DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4BDA930-56FF-4542-A9D5-7ACD4286F6BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B666CE7-6AD5-466B-8502-97A4CA35B2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,40 +71,40 @@
     <t>YARELIS VEGA JIMENEZ</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>50988101</t>
+  </si>
+  <si>
+    <t>NORELIS REYES BELTRAN</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>45493570</t>
+  </si>
+  <si>
+    <t>SANDRA BIBIANA VEGA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>50988101</t>
-  </si>
-  <si>
-    <t>NORELIS REYES BELTRAN</t>
-  </si>
-  <si>
-    <t>45493570</t>
-  </si>
-  <si>
-    <t>SANDRA BIBIANA VEGA HERNANDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -216,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B221A4D5-6D47-AB58-76D7-A3C727F8A231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D05E57-09DE-B14D-DEA9-967E4FA07F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EA18AC-1DDC-4CC5-80A5-183DF495CA38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7044B-556E-4EE9-83C1-9F637988C932}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25749</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1061,16 +1061,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1107,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1130,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1176,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1199,16 +1199,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
         <v>877803</v>
@@ -1222,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1245,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1291,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F27" s="18">
         <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1314,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="18">
         <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F30" s="18">
         <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1383,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1406,16 +1406,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
         <v>877803</v>
@@ -1429,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1452,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1475,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1498,16 +1498,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F36" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G36" s="18">
         <v>877803</v>
@@ -1521,16 +1521,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F37" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G37" s="18">
         <v>877803</v>
@@ -1544,16 +1544,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F38" s="24">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G38" s="24">
         <v>877803</v>
